--- a/Reports/SKI_CTSV.xlsx
+++ b/Reports/SKI_CTSV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29017"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workProject\mpi_projects\MpiSki\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\library\git_hub\MpiSki\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4C03AD-E7E3-47A9-91D7-D4D5885F4056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75AEC25-9189-4F17-9EB6-E7DDE4B00D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет ЦТ" sheetId="16" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -560,31 +560,30 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -894,8 +893,8 @@
   </sheetPr>
   <dimension ref="A1:R61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,116 +918,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44" t="str">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50" t="str">
         <f>IF(D6="","",D6)</f>
         <v/>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="I3" s="45" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="I3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="I4" s="45" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="I4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="46" t="str">
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="47" t="str">
         <f>REPT($I$1,1)</f>
         <v/>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="I5" s="45" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="I5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="46" t="s">
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="I6" s="45" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="I6" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="46" t="s">
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -1037,28 +1036,28 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
@@ -1067,18 +1066,18 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46" t="s">
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
@@ -1087,18 +1086,18 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="46" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
@@ -1107,16 +1106,16 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
     </row>
     <row r="12" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
@@ -1125,18 +1124,18 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
-      <c r="I12" s="47" t="s">
+      <c r="I12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="48" t="s">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
     </row>
     <row r="13" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
@@ -1145,16 +1144,16 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="I13" s="47" t="s">
+      <c r="I13" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
     </row>
     <row r="14" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
@@ -1163,16 +1162,16 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="I14" s="49" t="s">
+      <c r="I14" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
@@ -1181,15 +1180,6 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="40" t="s">
